--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
   <si>
     <t>net_idx</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
   </si>
   <si>
     <t>Node1</t>
@@ -651,13 +654,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,8 +712,11 @@
       <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -727,46 +733,49 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -783,46 +792,49 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
+      <c r="S3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -839,46 +851,49 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -895,46 +910,49 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -951,43 +969,46 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R6">
         <v>1</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1014,34 +1035,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1055,37 +1076,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1099,37 +1120,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1143,37 +1164,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1187,37 +1208,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>net_idx</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
   </si>
   <si>
     <t>J0</t>
@@ -1018,13 +1021,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1067,11 @@
       <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1076,40 +1082,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1120,40 +1129,43 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1164,40 +1176,43 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1208,37 +1223,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
         <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>net_idx</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
   </si>
   <si>
     <t>J0</t>
@@ -1021,13 +1024,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,8 +1073,11 @@
       <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1082,43 +1088,46 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1129,43 +1138,46 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1176,43 +1188,46 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1223,40 +1238,43 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
         <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>net_idx</t>
   </si>
@@ -84,6 +84,15 @@
     <t>txt_font_size</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>Node1</t>
   </si>
   <si>
@@ -132,6 +141,9 @@
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>sources</t>
   </si>
   <si>
@@ -202,9 +214,6 @@
   </si>
   <si>
     <t>J3_J3_k * Node3</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[91, 176, 253, 255]</t>
@@ -660,13 +669,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,8 +730,17 @@
       <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -739,40 +757,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -780,8 +798,11 @@
       <c r="S2">
         <v>12</v>
       </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -798,40 +819,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -839,8 +860,11 @@
       <c r="S3">
         <v>12</v>
       </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -857,40 +881,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -898,8 +922,11 @@
       <c r="S4">
         <v>12</v>
       </c>
+      <c r="V4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -916,40 +943,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -957,8 +984,11 @@
       <c r="S5">
         <v>12</v>
       </c>
+      <c r="V5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -975,46 +1005,49 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
         <v>12</v>
+      </c>
+      <c r="V6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1041,40 +1074,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1088,40 +1121,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -1138,40 +1171,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -1188,40 +1221,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -1238,40 +1271,40 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -10,13 +10,14 @@
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
+    <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
   <si>
     <t>net_idx</t>
   </si>
@@ -244,6 +245,9 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
+  </si>
+  <si>
+    <t>txt_content</t>
   </si>
 </sst>
 </file>
@@ -1313,4 +1317,152 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -11,13 +11,14 @@
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
+    <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>net_idx</t>
   </si>
@@ -43,7 +44,7 @@
     <t>border_width</t>
   </si>
   <si>
-    <t>compartment</t>
+    <t>_compartment_default_</t>
   </si>
   <si>
     <t>[0, 0]</t>
@@ -94,46 +95,25 @@
     <t>shape_info</t>
   </si>
   <si>
-    <t>Node1</t>
-  </si>
-  <si>
-    <t>Node0</t>
-  </si>
-  <si>
-    <t>Node2</t>
-  </si>
-  <si>
-    <t>Node3</t>
-  </si>
-  <si>
-    <t>Node4</t>
+    <t>x_1</t>
+  </si>
+  <si>
+    <t>x_0</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>[190.0, 109.0]</t>
-  </si>
-  <si>
-    <t>[40.0, 109.0]</t>
-  </si>
-  <si>
-    <t>[340.0, 109.0]</t>
-  </si>
-  <si>
-    <t>[490.0, 109.0]</t>
-  </si>
-  <si>
-    <t>[640.0, 109.0]</t>
-  </si>
-  <si>
-    <t>[62.0, 40.0]</t>
-  </si>
-  <si>
-    <t>[255, 204, 153, 200]</t>
+    <t>[413.0, 216.0]</t>
+  </si>
+  <si>
+    <t>[205.0, 216.0]</t>
+  </si>
+  <si>
+    <t>[50.0, 30.0]</t>
+  </si>
+  <si>
+    <t>[255, 204, 153, 255]</t>
   </si>
   <si>
     <t>[255, 108, 9, 255]</t>
@@ -142,6 +122,9 @@
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
+    <t>rectangle</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -178,70 +161,25 @@
     <t>rxn_reversible</t>
   </si>
   <si>
-    <t>J0</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>J3</t>
+    <t>r_0</t>
+  </si>
+  <si>
+    <t>[0]</t>
   </si>
   <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>J0_k * Node0</t>
-  </si>
-  <si>
-    <t>J1_J1_k * Node1</t>
-  </si>
-  <si>
-    <t>J2_J2_k * Node2</t>
-  </si>
-  <si>
-    <t>J3_J3_k * Node3</t>
+    <t>E0 * (k0 * x_1 - k0r * x_0)</t>
   </si>
   <si>
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[146.0, 129.0]</t>
-  </si>
-  <si>
-    <t>[296.0, 129.0]</t>
-  </si>
-  <si>
-    <t>[446.0, 129.0]</t>
-  </si>
-  <si>
-    <t>[596.0, 129.0]</t>
-  </si>
-  <si>
-    <t>[[146.0, 129.0], [108.5, 129.0], [183.5, 129.0]]</t>
-  </si>
-  <si>
-    <t>[[296.0, 129.0], [258.5, 129.0], [333.5, 129.0]]</t>
-  </si>
-  <si>
-    <t>[[446.0, 129.0], [408.5, 129.0], [483.5, 129.0]]</t>
-  </si>
-  <si>
-    <t>[[596.0, 129.0], [558.5, 129.0], [633.5, 129.0]]</t>
+    <t>[334.0, 231.0]</t>
+  </si>
+  <si>
+    <t>[[386.0, 231.0], [386.0, 231.0], [386.0, 231.0]]</t>
   </si>
   <si>
     <t>[12.0, 15.0]</t>
@@ -673,7 +611,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,46 +702,52 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
         <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -826,232 +770,52 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>12</v>
-      </c>
-      <c r="V4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
         <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>12</v>
-      </c>
-      <c r="V5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>12</v>
-      </c>
-      <c r="V6" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +825,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1078,40 +842,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1125,193 +889,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1321,15 +935,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -1347,119 +961,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4509D3B-B82F-4BC7-9768-3C1839F1B901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>net_idx</t>
   </si>
@@ -186,13 +192,19 @@
   </si>
   <si>
     <t>txt_content</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
+    <t>[255,255,255,255]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,13 +252,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -255,6 +281,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -301,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,9 +367,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,6 +419,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,14 +612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -610,14 +680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -750,7 +820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -824,14 +894,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>40</v>
@@ -877,8 +949,11 @@
       <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -926,6 +1001,9 @@
       </c>
       <c r="P2" t="b">
         <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -934,14 +1012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -967,14 +1045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4509D3B-B82F-4BC7-9768-3C1839F1B901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="80">
   <si>
     <t>net_idx</t>
   </si>
@@ -50,10 +44,31 @@
     <t>border_width</t>
   </si>
   <si>
-    <t>_compartment_default_</t>
-  </si>
-  <si>
-    <t>[0, 0]</t>
+    <t>txt_position</t>
+  </si>
+  <si>
+    <t>txt_size</t>
+  </si>
+  <si>
+    <t>txt_content</t>
+  </si>
+  <si>
+    <t>txt_font_color</t>
+  </si>
+  <si>
+    <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
+  </si>
+  <si>
+    <t>txt_anchor</t>
+  </si>
+  <si>
+    <t>compartment</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0]</t>
   </si>
   <si>
     <t>[1000, 1000]</t>
@@ -62,6 +77,12 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0, 0, 255]</t>
+  </si>
+  <si>
+    <t>['middle', 'middle']</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -77,21 +98,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>txt_position</t>
-  </si>
-  <si>
-    <t>txt_size</t>
-  </si>
-  <si>
-    <t>txt_font_color</t>
-  </si>
-  <si>
-    <t>txt_line_width</t>
-  </si>
-  <si>
-    <t>txt_font_size</t>
-  </si>
-  <si>
     <t>shape_name</t>
   </si>
   <si>
@@ -101,36 +107,51 @@
     <t>shape_info</t>
   </si>
   <si>
-    <t>x_1</t>
-  </si>
-  <si>
-    <t>x_0</t>
+    <t>Node1</t>
+  </si>
+  <si>
+    <t>Node0</t>
+  </si>
+  <si>
+    <t>Node2</t>
+  </si>
+  <si>
+    <t>Node3</t>
+  </si>
+  <si>
+    <t>Node4</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>[413.0, 216.0]</t>
-  </si>
-  <si>
-    <t>[205.0, 216.0]</t>
-  </si>
-  <si>
-    <t>[50.0, 30.0]</t>
-  </si>
-  <si>
-    <t>[255, 204, 153, 255]</t>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>[190.0, 109.0]</t>
+  </si>
+  <si>
+    <t>[40.0, 109.0]</t>
+  </si>
+  <si>
+    <t>[340.0, 109.0]</t>
+  </si>
+  <si>
+    <t>[490.0, 109.0]</t>
+  </si>
+  <si>
+    <t>[640.0, 109.0]</t>
+  </si>
+  <si>
+    <t>[62.0, 40.0]</t>
+  </si>
+  <si>
+    <t>[255, 204, 153, 200]</t>
   </si>
   <si>
     <t>[255, 108, 9, 255]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 255]</t>
-  </si>
-  <si>
-    <t>rectangle</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
@@ -146,6 +167,9 @@
     <t>modifiers</t>
   </si>
   <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
     <t>line_thickness</t>
   </si>
   <si>
@@ -167,44 +191,80 @@
     <t>rxn_reversible</t>
   </si>
   <si>
-    <t>r_0</t>
+    <t>J0</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>[1]</t>
   </si>
   <si>
     <t>[0]</t>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>E0 * (k0 * x_1 - k0r * x_0)</t>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>J0_k * Node0</t>
+  </si>
+  <si>
+    <t>J1_J1_k * Node1</t>
+  </si>
+  <si>
+    <t>J2_J2_k * Node2</t>
+  </si>
+  <si>
+    <t>J3_J3_k * Node3</t>
   </si>
   <si>
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[334.0, 231.0]</t>
-  </si>
-  <si>
-    <t>[[386.0, 231.0], [386.0, 231.0], [386.0, 231.0]]</t>
+    <t>[146.0, 129.0]</t>
+  </si>
+  <si>
+    <t>[296.0, 129.0]</t>
+  </si>
+  <si>
+    <t>[446.0, 129.0]</t>
+  </si>
+  <si>
+    <t>[596.0, 129.0]</t>
+  </si>
+  <si>
+    <t>[[146.0, 129.0], [108.5, 129.0], [183.5, 129.0]]</t>
+  </si>
+  <si>
+    <t>[[296.0, 129.0], [258.5, 129.0], [333.5, 129.0]]</t>
+  </si>
+  <si>
+    <t>[[446.0, 129.0], [408.5, 129.0], [483.5, 129.0]]</t>
+  </si>
+  <si>
+    <t>[[596.0, 129.0], [558.5, 129.0], [633.5, 129.0]]</t>
   </si>
   <si>
     <t>[12.0, 15.0]</t>
-  </si>
-  <si>
-    <t>txt_content</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
-  </si>
-  <si>
-    <t>[255,255,255,255]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -252,27 +312,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -281,14 +327,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -335,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,27 +405,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,24 +439,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,14 +614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,8 +646,29 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -656,22 +679,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -680,34 +721,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -716,13 +757,13 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -734,25 +775,31 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -769,58 +816,58 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -837,55 +884,259 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>12</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="V4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+      <c r="V5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>11</v>
-      </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="G6" t="s">
         <v>35</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -894,16 +1145,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,96 +1163,255 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1012,31 +1420,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1045,16 +1459,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1072,10 +1486,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -12,13 +12,14 @@
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
+    <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="96">
   <si>
     <t>net_idx</t>
   </si>
@@ -77,6 +78,9 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0.0]</t>
+  </si>
+  <si>
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
@@ -152,6 +156,9 @@
     <t>[255, 108, 9, 255]</t>
   </si>
   <si>
+    <t>['polygon']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -191,6 +198,15 @@
     <t>rxn_reversible</t>
   </si>
   <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
     <t>J0</t>
   </si>
   <si>
@@ -257,7 +273,40 @@
     <t>[[596.0, 129.0], [558.5, 129.0], [633.5, 129.0]]</t>
   </si>
   <si>
-    <t>[12.0, 15.0]</t>
+    <t>[15.0, 12.0]</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_NONE_']</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_']</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>_line_ending_default_</t>
+  </si>
+  <si>
+    <t>[-10.0, -5.0]</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>[10.0, 10.0]</t>
+  </si>
+  <si>
+    <t>[255, 102, 0, 255]</t>
+  </si>
+  <si>
+    <t>[[[0.0, 0.0], [100.0, 50.0], [0.0, 100.0], [33.0, 50.0], [0.0, 0.0]]]</t>
+  </si>
+  <si>
+    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
@@ -700,10 +749,10 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -712,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -733,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -757,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -784,13 +833,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -816,40 +865,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -857,14 +906,17 @@
       <c r="S2">
         <v>12</v>
       </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -884,40 +936,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -925,14 +977,17 @@
       <c r="S3">
         <v>12</v>
       </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -952,40 +1007,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -993,14 +1048,17 @@
       <c r="S4">
         <v>12</v>
       </c>
+      <c r="U4" t="s">
+        <v>45</v>
+      </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1020,40 +1078,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1061,14 +1119,17 @@
       <c r="S5">
         <v>12</v>
       </c>
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1088,40 +1149,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1129,14 +1190,17 @@
       <c r="S6">
         <v>12</v>
       </c>
+      <c r="U6" t="s">
+        <v>45</v>
+      </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1146,13 +1210,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,46 +1227,55 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1213,40 +1286,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -1254,8 +1327,17 @@
       <c r="Q2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1266,40 +1348,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -1307,8 +1389,17 @@
       <c r="Q3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1319,40 +1410,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -1360,8 +1451,17 @@
       <c r="Q4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1372,46 +1472,55 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
         <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1577,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1486,10 +1595,112 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="106">
   <si>
     <t>net_idx</t>
   </si>
@@ -207,6 +207,15 @@
     <t>modifiers_lineending</t>
   </si>
   <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
     <t>J0</t>
   </si>
   <si>
@@ -279,7 +288,19 @@
     <t>['_line_ending_default_NONE_']</t>
   </si>
   <si>
-    <t>['_line_ending_default_']</t>
+    <t>['line_ending_J0']</t>
+  </si>
+  <si>
+    <t>['line_ending_J1']</t>
+  </si>
+  <si>
+    <t>['line_ending_J2']</t>
+  </si>
+  <si>
+    <t>['line_ending_J3']</t>
+  </si>
+  <si>
+    <t>[[]]</t>
   </si>
   <si>
     <t>product</t>
@@ -288,7 +309,16 @@
     <t>_line_ending_default_NONE_</t>
   </si>
   <si>
-    <t>_line_ending_default_</t>
+    <t>line_ending_J0</t>
+  </si>
+  <si>
+    <t>line_ending_J1</t>
+  </si>
+  <si>
+    <t>line_ending_J2</t>
+  </si>
+  <si>
+    <t>line_ending_J3</t>
   </si>
   <si>
     <t>[-10.0, -5.0]</t>
@@ -1210,13 +1240,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,8 +1304,17 @@
       <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1286,37 +1325,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -1328,16 +1367,25 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1348,37 +1396,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -1390,16 +1438,25 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1410,37 +1467,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
         <v>46</v>
@@ -1452,16 +1509,25 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1472,37 +1538,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -1514,12 +1580,21 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="T5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1608,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1639,22 +1714,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1662,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1685,22 +1760,91 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="100">
   <si>
     <t>net_idx</t>
   </si>
@@ -216,6 +216,9 @@
     <t>mod_lineend_position</t>
   </si>
   <si>
+    <t>center_size</t>
+  </si>
+  <si>
     <t>J0</t>
   </si>
   <si>
@@ -258,28 +261,7 @@
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
-    <t>[146.0, 129.0]</t>
-  </si>
-  <si>
-    <t>[296.0, 129.0]</t>
-  </si>
-  <si>
-    <t>[446.0, 129.0]</t>
-  </si>
-  <si>
-    <t>[596.0, 129.0]</t>
-  </si>
-  <si>
-    <t>[[146.0, 129.0], [108.5, 129.0], [183.5, 129.0]]</t>
-  </si>
-  <si>
-    <t>[[296.0, 129.0], [258.5, 129.0], [333.5, 129.0]]</t>
-  </si>
-  <si>
-    <t>[[446.0, 129.0], [408.5, 129.0], [483.5, 129.0]]</t>
-  </si>
-  <si>
-    <t>[[596.0, 129.0], [558.5, 129.0], [633.5, 129.0]]</t>
+    <t>[[], [], []]</t>
   </si>
   <si>
     <t>[15.0, 12.0]</t>
@@ -1240,13 +1222,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,8 +1295,20 @@
       <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1325,37 +1319,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -1367,25 +1361,31 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
         <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="V2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="W2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1396,37 +1396,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
         <v>80</v>
-      </c>
-      <c r="L3" t="s">
-        <v>84</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -1438,25 +1438,31 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="V3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="W3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1467,37 +1473,37 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O4" t="s">
         <v>46</v>
@@ -1509,25 +1515,31 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
         <v>46</v>
       </c>
       <c r="U4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="V4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="W4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1538,37 +1550,37 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -1580,21 +1592,27 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="T5" t="s">
         <v>46</v>
       </c>
       <c r="U5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="V5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1714,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1737,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1760,22 +1778,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1783,22 +1801,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1806,22 +1824,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1829,22 +1847,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
     <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactionTextData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="104">
   <si>
     <t>net_idx</t>
   </si>
@@ -219,6 +220,12 @@
     <t>center_size</t>
   </si>
   <si>
+    <t>src_dash</t>
+  </si>
+  <si>
+    <t>tgt_dash</t>
+  </si>
+  <si>
     <t>J0</t>
   </si>
   <si>
@@ -319,6 +326,12 @@
   </si>
   <si>
     <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
+  </si>
+  <si>
+    <t>rxn_id</t>
+  </si>
+  <si>
+    <t>txt_id</t>
   </si>
 </sst>
 </file>
@@ -1222,13 +1235,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,8 +1320,14 @@
       <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1319,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1343,13 +1362,13 @@
         <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
@@ -1361,19 +1380,19 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
         <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W2" t="s">
         <v>46</v>
@@ -1384,8 +1403,14 @@
       <c r="AA2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1396,22 +1421,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1420,13 +1445,13 @@
         <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -1438,19 +1463,19 @@
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W3" t="s">
         <v>46</v>
@@ -1461,8 +1486,14 @@
       <c r="AA3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1473,22 +1504,22 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1497,13 +1528,13 @@
         <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
         <v>46</v>
@@ -1515,19 +1546,19 @@
         <v>18</v>
       </c>
       <c r="R4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T4" t="s">
         <v>46</v>
       </c>
       <c r="U4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W4" t="s">
         <v>46</v>
@@ -1538,8 +1569,14 @@
       <c r="AA4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1550,22 +1587,22 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1574,13 +1611,13 @@
         <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
         <v>46</v>
@@ -1592,19 +1629,19 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T5" t="s">
         <v>46</v>
       </c>
       <c r="U5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W5" t="s">
         <v>46</v>
@@ -1613,6 +1650,12 @@
         <v>16</v>
       </c>
       <c r="AA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1701,13 +1744,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1726,36 +1769,42 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1772,97 +1821,154 @@
       <c r="G3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
         <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="104">
   <si>
     <t>net_idx</t>
   </si>
@@ -67,6 +67,15 @@
     <t>txt_anchor</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>compartment</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>['middle', 'middle']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -103,15 +115,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>shape_name</t>
-  </si>
-  <si>
-    <t>shape_type</t>
-  </si>
-  <si>
-    <t>shape_info</t>
-  </si>
-  <si>
     <t>Node1</t>
   </si>
   <si>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t>['polygon']</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>sources</t>
@@ -689,13 +689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,8 +741,17 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -753,31 +762,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -786,7 +795,10 @@
         <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -807,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -831,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -858,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -890,40 +902,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -932,16 +944,16 @@
         <v>12</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -961,40 +973,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1003,16 +1015,16 @@
         <v>12</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1032,40 +1044,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1074,16 +1086,16 @@
         <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1103,40 +1115,40 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1145,16 +1157,16 @@
         <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="W5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1174,40 +1186,40 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1216,16 +1228,16 @@
         <v>12</v>
       </c>
       <c r="U6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="W6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1312,13 +1324,13 @@
         <v>65</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>66</v>
@@ -1350,7 +1362,7 @@
         <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>81</v>
@@ -1359,25 +1371,25 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
         <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
         <v>83</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
         <v>84</v>
@@ -1386,7 +1398,7 @@
         <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
         <v>89</v>
@@ -1395,19 +1407,19 @@
         <v>89</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1433,7 +1445,7 @@
         <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>81</v>
@@ -1442,25 +1454,25 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
         <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
         <v>83</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R3" t="s">
         <v>84</v>
@@ -1469,7 +1481,7 @@
         <v>86</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="U3" t="s">
         <v>89</v>
@@ -1478,19 +1490,19 @@
         <v>89</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AC3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1516,7 +1528,7 @@
         <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>81</v>
@@ -1525,25 +1537,25 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
         <v>82</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
         <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R4" t="s">
         <v>84</v>
@@ -1552,7 +1564,7 @@
         <v>87</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="U4" t="s">
         <v>89</v>
@@ -1561,19 +1573,19 @@
         <v>89</v>
       </c>
       <c r="W4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1599,7 +1611,7 @@
         <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
         <v>81</v>
@@ -1608,25 +1620,25 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
         <v>82</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
         <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
         <v>84</v>
@@ -1635,7 +1647,7 @@
         <v>88</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="U5" t="s">
         <v>89</v>
@@ -1644,19 +1656,19 @@
         <v>89</v>
       </c>
       <c r="W5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="X5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AB5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AC5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1725,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1731,10 +1743,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1764,10 +1776,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1790,7 +1802,7 @@
         <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>100</v>
@@ -1807,22 +1819,22 @@
         <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1842,7 +1854,7 @@
         <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>101</v>
@@ -1868,7 +1880,7 @@
         <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>101</v>
@@ -1894,7 +1906,7 @@
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>101</v>
@@ -1920,7 +1932,7 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
         <v>101</v>

--- a/tests/initiate_excel_files/LinearChain.xlsx
+++ b/tests/initiate_excel_files/LinearChain.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="105">
   <si>
     <t>net_idx</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>shape_idx</t>
+  </si>
+  <si>
+    <t>spec_dash</t>
   </si>
   <si>
     <t>Node1</t>
@@ -808,13 +811,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,8 +887,11 @@
       <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -902,34 +908,34 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -944,19 +950,22 @@
         <v>12</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V2" t="s">
         <v>25</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -973,34 +982,34 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1015,19 +1024,22 @@
         <v>12</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V3" t="s">
         <v>25</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1044,34 +1056,34 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1086,19 +1098,22 @@
         <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" t="s">
         <v>25</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1115,34 +1130,34 @@
         <v>-1</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1157,19 +1172,22 @@
         <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
         <v>25</v>
       </c>
       <c r="W5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1186,34 +1204,34 @@
         <v>-1</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1228,16 +1246,19 @@
         <v>12</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V6" t="s">
         <v>25</v>
       </c>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" t="s">
         <v>24</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1264,64 +1285,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -1333,10 +1354,10 @@
         <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1350,22 +1371,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1374,13 +1395,13 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -1392,19 +1413,19 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T2" t="s">
         <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W2" t="s">
         <v>25</v>
@@ -1433,22 +1454,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1457,13 +1478,13 @@
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -1475,19 +1496,19 @@
         <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T3" t="s">
         <v>25</v>
       </c>
       <c r="U3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W3" t="s">
         <v>25</v>
@@ -1516,22 +1537,22 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1540,13 +1561,13 @@
         <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -1558,19 +1579,19 @@
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T4" t="s">
         <v>25</v>
       </c>
       <c r="U4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W4" t="s">
         <v>25</v>
@@ -1599,22 +1620,22 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1623,13 +1644,13 @@
         <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -1641,19 +1662,19 @@
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T5" t="s">
         <v>25</v>
       </c>
       <c r="U5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W5" t="s">
         <v>25</v>
@@ -1790,25 +1811,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
         <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1816,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1842,25 +1863,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1868,25 +1889,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1894,25 +1915,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1920,25 +1941,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1956,10 +1977,10 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
